--- a/Data/Focal_2.xlsx
+++ b/Data/Focal_2.xlsx
@@ -5,23 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\APF\Atendimento ao Associado\LANÇAMENTO DE ATENDIMENTO DIARIOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\altaneiro.analista01\Desktop\GitClones\painel_de_atendimentos\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9BBE19-0983-48F2-9A18-1A96CACBF565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89429D4-6E11-4F6A-A3AF-78FC3344A03B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Focal2" sheetId="1" r:id="rId1"/>
-    <sheet name="Dados" sheetId="2" r:id="rId2"/>
+    <sheet name="Dados" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>ID</t>
   </si>
@@ -87,9 +87,6 @@
   </si>
   <si>
     <t>MATERIAIS OBRIGATÓRIOS</t>
-  </si>
-  <si>
-    <t>SOMAR</t>
   </si>
   <si>
     <t>CONVENIO</t>
@@ -796,7 +793,7 @@
   <dimension ref="A1:H1001"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,2200 +833,664 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" t="str">
         <f>IF(COUNTA(B2:G2)=6, COUNTA(B$2:B2), "")</f>
-        <v>1</v>
-      </c>
-      <c r="B2" s="5">
-        <v>45887</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>59</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B2" s="5"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" t="str">
         <f>IF(COUNTA(B3:G3)=6, COUNTA(B$2:B3), "")</f>
-        <v>2</v>
-      </c>
-      <c r="B3" s="5">
-        <v>45887</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>106</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" t="str">
         <f>IF(COUNTA(B4:G4)=6, COUNTA(B$2:B4), "")</f>
-        <v>3</v>
-      </c>
-      <c r="B4" s="5">
-        <v>45887</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <v>203</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B4" s="5"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" t="str">
         <f>IF(COUNTA(B5:G5)=6, COUNTA(B$2:B5), "")</f>
-        <v>4</v>
-      </c>
-      <c r="B5" s="5">
-        <v>45887</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5">
-        <v>376</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" t="str">
         <f>IF(COUNTA(B6:G6)=6, COUNTA(B$2:B6), "")</f>
-        <v>5</v>
-      </c>
-      <c r="B6" s="5">
-        <v>45887</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6">
-        <v>388</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" t="str">
         <f>IF(COUNTA(B7:G7)=6, COUNTA(B$2:B7), "")</f>
-        <v>6</v>
-      </c>
-      <c r="B7" s="5">
-        <v>45888</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7">
-        <v>26</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" t="str">
         <f>IF(COUNTA(B8:G8)=6, COUNTA(B$2:B8), "")</f>
-        <v>7</v>
-      </c>
-      <c r="B8" s="5">
-        <v>45888</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8">
-        <v>58</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" t="str">
         <f>IF(COUNTA(B9:G9)=6, COUNTA(B$2:B9), "")</f>
-        <v>8</v>
-      </c>
-      <c r="B9" s="5">
-        <v>45888</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9">
-        <v>88</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" t="s">
-        <v>11</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" t="str">
         <f>IF(COUNTA(B10:G10)=6, COUNTA(B$2:B10), "")</f>
-        <v>9</v>
-      </c>
-      <c r="B10" s="5">
-        <v>45888</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10">
-        <v>135</v>
-      </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" t="s">
-        <v>11</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B10" s="5"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" t="str">
         <f>IF(COUNTA(B11:G11)=6, COUNTA(B$2:B11), "")</f>
-        <v>10</v>
-      </c>
-      <c r="B11" s="5">
-        <v>45888</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11">
-        <v>137</v>
-      </c>
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" t="s">
-        <v>11</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" t="str">
         <f>IF(COUNTA(B12:G12)=6, COUNTA(B$2:B12), "")</f>
-        <v>11</v>
-      </c>
-      <c r="B12" s="5">
-        <v>45888</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12">
-        <v>147</v>
-      </c>
-      <c r="F12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" t="s">
-        <v>11</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B12" s="5"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" t="str">
         <f>IF(COUNTA(B13:G13)=6, COUNTA(B$2:B13), "")</f>
-        <v>12</v>
-      </c>
-      <c r="B13" s="5">
-        <v>45888</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13">
-        <v>158</v>
-      </c>
-      <c r="F13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" t="s">
-        <v>11</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B13" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" t="str">
         <f>IF(COUNTA(B14:G14)=6, COUNTA(B$2:B14), "")</f>
-        <v>13</v>
-      </c>
-      <c r="B14" s="5">
-        <v>45888</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14">
-        <v>229</v>
-      </c>
-      <c r="F14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" t="s">
-        <v>11</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B14" s="5"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" t="str">
         <f>IF(COUNTA(B15:G15)=6, COUNTA(B$2:B15), "")</f>
-        <v>14</v>
-      </c>
-      <c r="B15" s="5">
-        <v>45888</v>
-      </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15">
-        <v>280</v>
-      </c>
-      <c r="F15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" t="s">
-        <v>13</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B15" s="5"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" t="str">
         <f>IF(COUNTA(B16:G16)=6, COUNTA(B$2:B16), "")</f>
-        <v>15</v>
-      </c>
-      <c r="B16" s="5">
-        <v>45888</v>
-      </c>
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16">
-        <v>294</v>
-      </c>
-      <c r="F16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
+        <v/>
+      </c>
+      <c r="B16" s="5"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
         <f>IF(COUNTA(B17:G17)=6, COUNTA(B$2:B17), "")</f>
-        <v>16</v>
-      </c>
-      <c r="B17" s="5">
-        <v>45888</v>
-      </c>
-      <c r="C17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17">
-        <v>308</v>
-      </c>
-      <c r="F17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
+        <v/>
+      </c>
+      <c r="B17" s="5"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
         <f>IF(COUNTA(B18:G18)=6, COUNTA(B$2:B18), "")</f>
-        <v>17</v>
-      </c>
-      <c r="B18" s="5">
-        <v>45889</v>
-      </c>
-      <c r="C18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18">
-        <v>315</v>
-      </c>
-      <c r="F18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
+        <v/>
+      </c>
+      <c r="B18" s="5"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
         <f>IF(COUNTA(B19:G19)=6, COUNTA(B$2:B19), "")</f>
-        <v>18</v>
-      </c>
-      <c r="B19" s="5">
-        <v>45889</v>
-      </c>
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19">
-        <v>352</v>
-      </c>
-      <c r="F19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
+        <v/>
+      </c>
+      <c r="B19" s="5"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
         <f>IF(COUNTA(B20:G20)=6, COUNTA(B$2:B20), "")</f>
-        <v>19</v>
-      </c>
-      <c r="B20" s="5">
-        <v>45889</v>
-      </c>
-      <c r="C20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20">
-        <v>305</v>
-      </c>
-      <c r="F20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
+        <v/>
+      </c>
+      <c r="B20" s="5"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
         <f>IF(COUNTA(B21:G21)=6, COUNTA(B$2:B21), "")</f>
-        <v>20</v>
-      </c>
-      <c r="B21" s="5">
-        <v>45889</v>
-      </c>
-      <c r="C21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21">
-        <v>117</v>
-      </c>
-      <c r="F21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
+        <v/>
+      </c>
+      <c r="B21" s="5"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
         <f>IF(COUNTA(B22:G22)=6, COUNTA(B$2:B22), "")</f>
-        <v>21</v>
-      </c>
-      <c r="B22" s="5">
-        <v>45889</v>
-      </c>
-      <c r="C22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22">
-        <v>137</v>
-      </c>
-      <c r="F22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
+        <v/>
+      </c>
+      <c r="B22" s="5"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
         <f>IF(COUNTA(B23:G23)=6, COUNTA(B$2:B23), "")</f>
-        <v>22</v>
-      </c>
-      <c r="B23" s="5">
-        <v>45889</v>
-      </c>
-      <c r="C23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23">
-        <v>147</v>
-      </c>
-      <c r="F23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
+        <v/>
+      </c>
+      <c r="B23" s="5"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
         <f>IF(COUNTA(B24:G24)=6, COUNTA(B$2:B24), "")</f>
-        <v>23</v>
-      </c>
-      <c r="B24" s="5">
-        <v>45889</v>
-      </c>
-      <c r="C24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24">
-        <v>184</v>
-      </c>
-      <c r="F24" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25">
+        <v/>
+      </c>
+      <c r="B24" s="5"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
         <f>IF(COUNTA(B25:G25)=6, COUNTA(B$2:B25), "")</f>
-        <v>24</v>
-      </c>
-      <c r="B25" s="5">
-        <v>45889</v>
-      </c>
-      <c r="C25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25">
-        <v>189</v>
-      </c>
-      <c r="F25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26">
+        <v/>
+      </c>
+      <c r="B25" s="5"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
         <f>IF(COUNTA(B26:G26)=6, COUNTA(B$2:B26), "")</f>
-        <v>25</v>
-      </c>
-      <c r="B26" s="5">
-        <v>45889</v>
-      </c>
-      <c r="C26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26">
-        <v>198</v>
-      </c>
-      <c r="F26" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27">
+        <v/>
+      </c>
+      <c r="B26" s="5"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
         <f>IF(COUNTA(B27:G27)=6, COUNTA(B$2:B27), "")</f>
-        <v>26</v>
-      </c>
-      <c r="B27" s="5">
-        <v>45890</v>
-      </c>
-      <c r="C27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27">
-        <v>94</v>
-      </c>
-      <c r="F27" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28">
+        <v/>
+      </c>
+      <c r="B27" s="5"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
         <f>IF(COUNTA(B28:G28)=6, COUNTA(B$2:B28), "")</f>
-        <v>27</v>
-      </c>
-      <c r="B28" s="5">
-        <v>45890</v>
-      </c>
-      <c r="C28" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28">
-        <v>167</v>
-      </c>
-      <c r="F28" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29">
+        <v/>
+      </c>
+      <c r="B28" s="5"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
         <f>IF(COUNTA(B29:G29)=6, COUNTA(B$2:B29), "")</f>
-        <v>28</v>
-      </c>
-      <c r="B29" s="5">
-        <v>45890</v>
-      </c>
-      <c r="C29" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29">
-        <v>137</v>
-      </c>
-      <c r="F29" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30">
+        <v/>
+      </c>
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
         <f>IF(COUNTA(B30:G30)=6, COUNTA(B$2:B30), "")</f>
-        <v>29</v>
-      </c>
-      <c r="B30" s="5">
-        <v>45890</v>
-      </c>
-      <c r="C30" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30">
-        <v>188</v>
-      </c>
-      <c r="F30" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31">
+        <v/>
+      </c>
+      <c r="B30" s="5"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
         <f>IF(COUNTA(B31:G31)=6, COUNTA(B$2:B31), "")</f>
-        <v>30</v>
-      </c>
-      <c r="B31" s="5">
-        <v>45890</v>
-      </c>
-      <c r="C31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31">
-        <v>106</v>
-      </c>
-      <c r="F31" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32">
+        <v/>
+      </c>
+      <c r="B31" s="5"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
         <f>IF(COUNTA(B32:G32)=6, COUNTA(B$2:B32), "")</f>
-        <v>31</v>
-      </c>
-      <c r="B32" s="5">
-        <v>45890</v>
-      </c>
-      <c r="C32" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32">
-        <v>18</v>
-      </c>
-      <c r="F32" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33">
+        <v/>
+      </c>
+      <c r="B32" s="5"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
         <f>IF(COUNTA(B33:G33)=6, COUNTA(B$2:B33), "")</f>
-        <v>32</v>
-      </c>
-      <c r="B33" s="5">
-        <v>45890</v>
-      </c>
-      <c r="C33" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33">
-        <v>305</v>
-      </c>
-      <c r="F33" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34">
+        <v/>
+      </c>
+      <c r="B33" s="5"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
         <f>IF(COUNTA(B34:G34)=6, COUNTA(B$2:B34), "")</f>
-        <v>33</v>
-      </c>
-      <c r="B34" s="5">
-        <v>45890</v>
-      </c>
-      <c r="C34" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34">
-        <v>159</v>
-      </c>
-      <c r="F34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35">
+        <v/>
+      </c>
+      <c r="B34" s="5"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
         <f>IF(COUNTA(B35:G35)=6, COUNTA(B$2:B35), "")</f>
-        <v>34</v>
-      </c>
-      <c r="B35" s="5">
-        <v>45890</v>
-      </c>
-      <c r="C35" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35">
-        <v>18</v>
-      </c>
-      <c r="F35" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36">
+        <v/>
+      </c>
+      <c r="B35" s="5"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
         <f>IF(COUNTA(B36:G36)=6, COUNTA(B$2:B36), "")</f>
-        <v>35</v>
-      </c>
-      <c r="B36" s="5">
-        <v>45890</v>
-      </c>
-      <c r="C36" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36">
-        <v>158</v>
-      </c>
-      <c r="F36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37">
+        <v/>
+      </c>
+      <c r="B36" s="5"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
         <f>IF(COUNTA(B37:G37)=6, COUNTA(B$2:B37), "")</f>
-        <v>36</v>
-      </c>
-      <c r="B37" s="5">
-        <v>45890</v>
-      </c>
-      <c r="C37" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37">
-        <v>195</v>
-      </c>
-      <c r="F37" t="s">
-        <v>10</v>
-      </c>
-      <c r="G37" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38">
+        <v/>
+      </c>
+      <c r="B37" s="5"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
         <f>IF(COUNTA(B38:G38)=6, COUNTA(B$2:B38), "")</f>
-        <v>37</v>
-      </c>
-      <c r="B38" s="5">
-        <v>45890</v>
-      </c>
-      <c r="C38" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38">
-        <v>384</v>
-      </c>
-      <c r="F38" t="s">
-        <v>10</v>
-      </c>
-      <c r="G38" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39">
+        <v/>
+      </c>
+      <c r="B38" s="5"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="str">
         <f>IF(COUNTA(B39:G39)=6, COUNTA(B$2:B39), "")</f>
-        <v>38</v>
-      </c>
-      <c r="B39" s="5">
-        <v>45891</v>
-      </c>
-      <c r="C39" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39">
-        <v>13</v>
-      </c>
-      <c r="F39" t="s">
-        <v>10</v>
-      </c>
-      <c r="G39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40">
+        <v/>
+      </c>
+      <c r="B39" s="5"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
         <f>IF(COUNTA(B40:G40)=6, COUNTA(B$2:B40), "")</f>
-        <v>39</v>
-      </c>
-      <c r="B40" s="5">
-        <v>45891</v>
-      </c>
-      <c r="C40" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40">
-        <v>22</v>
-      </c>
-      <c r="F40" t="s">
-        <v>10</v>
-      </c>
-      <c r="G40" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41">
+        <v/>
+      </c>
+      <c r="B40" s="5"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
         <f>IF(COUNTA(B41:G41)=6, COUNTA(B$2:B41), "")</f>
-        <v>40</v>
-      </c>
-      <c r="B41" s="5">
-        <v>45891</v>
-      </c>
-      <c r="C41" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41">
-        <v>23</v>
-      </c>
-      <c r="F41" t="s">
-        <v>10</v>
-      </c>
-      <c r="G41" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42">
+        <v/>
+      </c>
+      <c r="B41" s="5"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
         <f>IF(COUNTA(B42:G42)=6, COUNTA(B$2:B42), "")</f>
-        <v>41</v>
-      </c>
-      <c r="B42" s="5">
-        <v>45891</v>
-      </c>
-      <c r="C42" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42">
-        <v>82</v>
-      </c>
-      <c r="F42" t="s">
-        <v>10</v>
-      </c>
-      <c r="G42" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43">
+        <v/>
+      </c>
+      <c r="B42" s="5"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="str">
         <f>IF(COUNTA(B43:G43)=6, COUNTA(B$2:B43), "")</f>
-        <v>42</v>
-      </c>
-      <c r="B43" s="5">
-        <v>45891</v>
-      </c>
-      <c r="C43" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43">
-        <v>189</v>
-      </c>
-      <c r="F43" t="s">
-        <v>10</v>
-      </c>
-      <c r="G43" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44">
+        <v/>
+      </c>
+      <c r="B43" s="5"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
         <f>IF(COUNTA(B44:G44)=6, COUNTA(B$2:B44), "")</f>
-        <v>43</v>
-      </c>
-      <c r="B44" s="5">
-        <v>45891</v>
-      </c>
-      <c r="C44" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44">
-        <v>195</v>
-      </c>
-      <c r="F44" t="s">
-        <v>10</v>
-      </c>
-      <c r="G44" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45">
+        <v/>
+      </c>
+      <c r="B44" s="5"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
         <f>IF(COUNTA(B45:G45)=6, COUNTA(B$2:B45), "")</f>
-        <v>44</v>
-      </c>
-      <c r="B45" s="5">
-        <v>45891</v>
-      </c>
-      <c r="C45" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45">
-        <v>203</v>
-      </c>
-      <c r="F45" t="s">
-        <v>10</v>
-      </c>
-      <c r="G45" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46">
+        <v/>
+      </c>
+      <c r="B45" s="5"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
         <f>IF(COUNTA(B46:G46)=6, COUNTA(B$2:B46), "")</f>
-        <v>45</v>
-      </c>
-      <c r="B46" s="5">
-        <v>45891</v>
-      </c>
-      <c r="C46" t="s">
-        <v>21</v>
-      </c>
-      <c r="D46" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46">
-        <v>259</v>
-      </c>
-      <c r="F46" t="s">
-        <v>10</v>
-      </c>
-      <c r="G46" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47">
+        <v/>
+      </c>
+      <c r="B46" s="5"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
         <f>IF(COUNTA(B47:G47)=6, COUNTA(B$2:B47), "")</f>
-        <v>46</v>
-      </c>
-      <c r="B47" s="5">
-        <v>45891</v>
-      </c>
-      <c r="C47" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47">
-        <v>267</v>
-      </c>
-      <c r="F47" t="s">
-        <v>10</v>
-      </c>
-      <c r="G47" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48">
+        <v/>
+      </c>
+      <c r="B47" s="5"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="str">
         <f>IF(COUNTA(B48:G48)=6, COUNTA(B$2:B48), "")</f>
-        <v>47</v>
-      </c>
-      <c r="B48" s="5">
-        <v>45891</v>
-      </c>
-      <c r="C48" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48">
-        <v>358</v>
-      </c>
-      <c r="F48" t="s">
-        <v>10</v>
-      </c>
-      <c r="G48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49">
+        <v/>
+      </c>
+      <c r="B48" s="5"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
         <f>IF(COUNTA(B49:G49)=6, COUNTA(B$2:B49), "")</f>
-        <v>48</v>
-      </c>
-      <c r="B49" s="5">
-        <v>45891</v>
-      </c>
-      <c r="C49" t="s">
-        <v>16</v>
-      </c>
-      <c r="D49" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49">
-        <v>366</v>
-      </c>
-      <c r="F49" t="s">
-        <v>10</v>
-      </c>
-      <c r="G49" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50">
+        <v/>
+      </c>
+      <c r="B49" s="5"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
         <f>IF(COUNTA(B50:G50)=6, COUNTA(B$2:B50), "")</f>
-        <v>49</v>
-      </c>
-      <c r="B50" s="5">
-        <v>45891</v>
-      </c>
-      <c r="C50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D50" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50">
-        <v>372</v>
-      </c>
-      <c r="F50" t="s">
-        <v>10</v>
-      </c>
-      <c r="G50" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51">
+        <v/>
+      </c>
+      <c r="B50" s="5"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
         <f>IF(COUNTA(B51:G51)=6, COUNTA(B$2:B51), "")</f>
-        <v>50</v>
-      </c>
-      <c r="B51" s="5">
-        <v>45891</v>
-      </c>
-      <c r="C51" t="s">
-        <v>16</v>
-      </c>
-      <c r="D51" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51">
-        <v>374</v>
-      </c>
-      <c r="F51" t="s">
-        <v>10</v>
-      </c>
-      <c r="G51" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52">
+        <v/>
+      </c>
+      <c r="B51" s="5"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="str">
         <f>IF(COUNTA(B52:G52)=6, COUNTA(B$2:B52), "")</f>
-        <v>51</v>
-      </c>
-      <c r="B52" s="5">
-        <v>45891</v>
-      </c>
-      <c r="C52" t="s">
-        <v>16</v>
-      </c>
-      <c r="D52" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52">
-        <v>376</v>
-      </c>
-      <c r="F52" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53">
+        <v/>
+      </c>
+      <c r="B52" s="5"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="str">
         <f>IF(COUNTA(B53:G53)=6, COUNTA(B$2:B53), "")</f>
-        <v>52</v>
-      </c>
-      <c r="B53" s="5">
-        <v>45891</v>
-      </c>
-      <c r="C53" t="s">
-        <v>16</v>
-      </c>
-      <c r="D53" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53">
-        <v>380</v>
-      </c>
-      <c r="F53" t="s">
-        <v>10</v>
-      </c>
-      <c r="G53" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54">
+        <v/>
+      </c>
+      <c r="B53" s="5"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="str">
         <f>IF(COUNTA(B54:G54)=6, COUNTA(B$2:B54), "")</f>
-        <v>53</v>
-      </c>
-      <c r="B54" s="5">
-        <v>45891</v>
-      </c>
-      <c r="C54" t="s">
-        <v>16</v>
-      </c>
-      <c r="D54" t="s">
-        <v>9</v>
-      </c>
-      <c r="E54">
-        <v>384</v>
-      </c>
-      <c r="F54" t="s">
-        <v>10</v>
-      </c>
-      <c r="G54" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55">
+        <v/>
+      </c>
+      <c r="B54" s="5"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="str">
         <f>IF(COUNTA(B55:G55)=6, COUNTA(B$2:B55), "")</f>
-        <v>54</v>
-      </c>
-      <c r="B55" s="5">
-        <v>45891</v>
-      </c>
-      <c r="C55" t="s">
-        <v>16</v>
-      </c>
-      <c r="D55" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55">
-        <v>237</v>
-      </c>
-      <c r="F55" t="s">
-        <v>10</v>
-      </c>
-      <c r="G55" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56">
+        <v/>
+      </c>
+      <c r="B55" s="5"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="str">
         <f>IF(COUNTA(B56:G56)=6, COUNTA(B$2:B56), "")</f>
-        <v>55</v>
-      </c>
-      <c r="B56" s="5">
-        <v>45891</v>
-      </c>
-      <c r="C56" t="s">
-        <v>16</v>
-      </c>
-      <c r="D56" t="s">
-        <v>9</v>
-      </c>
-      <c r="E56">
-        <v>229</v>
-      </c>
-      <c r="F56" t="s">
-        <v>10</v>
-      </c>
-      <c r="G56" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57">
+        <v/>
+      </c>
+      <c r="B56" s="5"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="str">
         <f>IF(COUNTA(B57:G57)=6, COUNTA(B$2:B57), "")</f>
-        <v>56</v>
-      </c>
-      <c r="B57" s="5">
-        <v>45891</v>
-      </c>
-      <c r="C57" t="s">
-        <v>16</v>
-      </c>
-      <c r="D57" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57">
-        <v>224</v>
-      </c>
-      <c r="F57" t="s">
-        <v>10</v>
-      </c>
-      <c r="G57" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58">
+        <v/>
+      </c>
+      <c r="B57" s="5"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="str">
         <f>IF(COUNTA(B58:G58)=6, COUNTA(B$2:B58), "")</f>
-        <v>57</v>
-      </c>
-      <c r="B58" s="5">
-        <v>45891</v>
-      </c>
-      <c r="C58" t="s">
-        <v>16</v>
-      </c>
-      <c r="D58" t="s">
-        <v>9</v>
-      </c>
-      <c r="E58">
-        <v>87</v>
-      </c>
-      <c r="F58" t="s">
-        <v>10</v>
-      </c>
-      <c r="G58" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59">
+        <v/>
+      </c>
+      <c r="B58" s="5"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="str">
         <f>IF(COUNTA(B59:G59)=6, COUNTA(B$2:B59), "")</f>
-        <v>58</v>
-      </c>
-      <c r="B59" s="5">
-        <v>45891</v>
-      </c>
-      <c r="C59" t="s">
-        <v>16</v>
-      </c>
-      <c r="D59" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59">
-        <v>344</v>
-      </c>
-      <c r="F59" t="s">
-        <v>10</v>
-      </c>
-      <c r="G59" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60">
+        <v/>
+      </c>
+      <c r="B59" s="5"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="str">
         <f>IF(COUNTA(B60:G60)=6, COUNTA(B$2:B60), "")</f>
-        <v>59</v>
-      </c>
-      <c r="B60" s="5">
-        <v>45891</v>
-      </c>
-      <c r="C60" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" t="s">
-        <v>9</v>
-      </c>
-      <c r="E60">
-        <v>322</v>
-      </c>
-      <c r="F60" t="s">
-        <v>10</v>
-      </c>
-      <c r="G60" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61">
+        <v/>
+      </c>
+      <c r="B60" s="5"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="str">
         <f>IF(COUNTA(B61:G61)=6, COUNTA(B$2:B61), "")</f>
-        <v>60</v>
-      </c>
-      <c r="B61" s="5">
-        <v>45891</v>
-      </c>
-      <c r="C61" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" t="s">
-        <v>9</v>
-      </c>
-      <c r="E61">
-        <v>158</v>
-      </c>
-      <c r="F61" t="s">
-        <v>10</v>
-      </c>
-      <c r="G61" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62">
+        <v/>
+      </c>
+      <c r="B61" s="5"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="str">
         <f>IF(COUNTA(B62:G62)=6, COUNTA(B$2:B62), "")</f>
-        <v>61</v>
-      </c>
-      <c r="B62" s="5">
-        <v>45891</v>
-      </c>
-      <c r="C62" t="s">
-        <v>16</v>
-      </c>
-      <c r="D62" t="s">
-        <v>9</v>
-      </c>
-      <c r="E62">
-        <v>167</v>
-      </c>
-      <c r="F62" t="s">
-        <v>10</v>
-      </c>
-      <c r="G62" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63">
+        <v/>
+      </c>
+      <c r="B62" s="5"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="str">
         <f>IF(COUNTA(B63:G63)=6, COUNTA(B$2:B63), "")</f>
-        <v>62</v>
-      </c>
-      <c r="B63" s="5">
-        <v>45891</v>
-      </c>
-      <c r="C63" t="s">
-        <v>16</v>
-      </c>
-      <c r="D63" t="s">
-        <v>9</v>
-      </c>
-      <c r="E63">
-        <v>378</v>
-      </c>
-      <c r="F63" t="s">
-        <v>10</v>
-      </c>
-      <c r="G63" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64">
+        <v/>
+      </c>
+      <c r="B63" s="5"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="str">
         <f>IF(COUNTA(B64:G64)=6, COUNTA(B$2:B64), "")</f>
-        <v>63</v>
-      </c>
-      <c r="B64" s="5">
-        <v>45891</v>
-      </c>
-      <c r="C64" t="s">
-        <v>16</v>
-      </c>
-      <c r="D64" t="s">
-        <v>9</v>
-      </c>
-      <c r="E64">
-        <v>377</v>
-      </c>
-      <c r="F64" t="s">
-        <v>10</v>
-      </c>
-      <c r="G64" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65">
+        <v/>
+      </c>
+      <c r="B64" s="5"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="str">
         <f>IF(COUNTA(B65:G65)=6, COUNTA(B$2:B65), "")</f>
-        <v>64</v>
-      </c>
-      <c r="B65" s="5">
-        <v>45891</v>
-      </c>
-      <c r="C65" t="s">
-        <v>16</v>
-      </c>
-      <c r="D65" t="s">
-        <v>9</v>
-      </c>
-      <c r="E65">
-        <v>215</v>
-      </c>
-      <c r="F65" t="s">
-        <v>10</v>
-      </c>
-      <c r="G65" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66">
+        <v/>
+      </c>
+      <c r="B65" s="5"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="str">
         <f>IF(COUNTA(B66:G66)=6, COUNTA(B$2:B66), "")</f>
-        <v>65</v>
-      </c>
-      <c r="B66" s="5">
-        <v>45894</v>
-      </c>
-      <c r="C66" t="s">
-        <v>16</v>
-      </c>
-      <c r="D66" t="s">
-        <v>9</v>
-      </c>
-      <c r="E66">
-        <v>82</v>
-      </c>
-      <c r="F66" t="s">
-        <v>10</v>
-      </c>
-      <c r="G66" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67">
+        <v/>
+      </c>
+      <c r="B66" s="5"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="str">
         <f>IF(COUNTA(B67:G67)=6, COUNTA(B$2:B67), "")</f>
-        <v>66</v>
-      </c>
-      <c r="B67" s="5">
-        <v>45894</v>
-      </c>
-      <c r="C67" t="s">
-        <v>16</v>
-      </c>
-      <c r="D67" t="s">
-        <v>9</v>
-      </c>
-      <c r="E67">
-        <v>120</v>
-      </c>
-      <c r="F67" t="s">
-        <v>10</v>
-      </c>
-      <c r="G67" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68">
+        <v/>
+      </c>
+      <c r="B67" s="5"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="str">
         <f>IF(COUNTA(B68:G68)=6, COUNTA(B$2:B68), "")</f>
-        <v>67</v>
-      </c>
-      <c r="B68" s="5">
-        <v>45894</v>
-      </c>
-      <c r="C68" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" t="s">
-        <v>9</v>
-      </c>
-      <c r="E68">
-        <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>10</v>
-      </c>
-      <c r="G68" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69">
+        <v/>
+      </c>
+      <c r="B68" s="5"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="str">
         <f>IF(COUNTA(B69:G69)=6, COUNTA(B$2:B69), "")</f>
-        <v>68</v>
-      </c>
-      <c r="B69" s="5">
-        <v>45894</v>
-      </c>
-      <c r="C69" t="s">
-        <v>16</v>
-      </c>
-      <c r="D69" t="s">
-        <v>9</v>
-      </c>
-      <c r="E69">
-        <v>138</v>
-      </c>
-      <c r="F69" t="s">
-        <v>10</v>
-      </c>
-      <c r="G69" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70">
+        <v/>
+      </c>
+      <c r="B69" s="5"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="str">
         <f>IF(COUNTA(B70:G70)=6, COUNTA(B$2:B70), "")</f>
-        <v>69</v>
-      </c>
-      <c r="B70" s="5">
-        <v>45894</v>
-      </c>
-      <c r="C70" t="s">
-        <v>15</v>
-      </c>
-      <c r="D70" t="s">
-        <v>9</v>
-      </c>
-      <c r="E70">
-        <v>158</v>
-      </c>
-      <c r="F70" t="s">
-        <v>10</v>
-      </c>
-      <c r="G70" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71">
+        <v/>
+      </c>
+      <c r="B70" s="5"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="str">
         <f>IF(COUNTA(B71:G71)=6, COUNTA(B$2:B71), "")</f>
-        <v>70</v>
-      </c>
-      <c r="B71" s="5">
-        <v>45894</v>
-      </c>
-      <c r="C71" t="s">
-        <v>14</v>
-      </c>
-      <c r="D71" t="s">
-        <v>9</v>
-      </c>
-      <c r="E71">
-        <v>166</v>
-      </c>
-      <c r="F71" t="s">
-        <v>10</v>
-      </c>
-      <c r="G71" t="s">
-        <v>11</v>
-      </c>
-      <c r="H71" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72">
+        <v/>
+      </c>
+      <c r="B71" s="5"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="str">
         <f>IF(COUNTA(B72:G72)=6, COUNTA(B$2:B72), "")</f>
-        <v>71</v>
-      </c>
-      <c r="B72" s="5">
-        <v>45894</v>
-      </c>
-      <c r="C72" t="s">
-        <v>16</v>
-      </c>
-      <c r="D72" t="s">
-        <v>9</v>
-      </c>
-      <c r="E72">
-        <v>214</v>
-      </c>
-      <c r="F72" t="s">
-        <v>10</v>
-      </c>
-      <c r="G72" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73">
+        <v/>
+      </c>
+      <c r="B72" s="5"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="str">
         <f>IF(COUNTA(B73:G73)=6, COUNTA(B$2:B73), "")</f>
-        <v>72</v>
-      </c>
-      <c r="B73" s="5">
-        <v>45894</v>
-      </c>
-      <c r="C73" t="s">
-        <v>16</v>
-      </c>
-      <c r="D73" t="s">
-        <v>9</v>
-      </c>
-      <c r="E73">
-        <v>215</v>
-      </c>
-      <c r="F73" t="s">
-        <v>10</v>
-      </c>
-      <c r="G73" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74">
+        <v/>
+      </c>
+      <c r="B73" s="5"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="str">
         <f>IF(COUNTA(B74:G74)=6, COUNTA(B$2:B74), "")</f>
-        <v>73</v>
-      </c>
-      <c r="B74" s="5">
-        <v>45894</v>
-      </c>
-      <c r="C74" t="s">
-        <v>16</v>
-      </c>
-      <c r="D74" t="s">
-        <v>9</v>
-      </c>
-      <c r="E74">
-        <v>296</v>
-      </c>
-      <c r="F74" t="s">
-        <v>10</v>
-      </c>
-      <c r="G74" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75">
+        <v/>
+      </c>
+      <c r="B74" s="5"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="str">
         <f>IF(COUNTA(B75:G75)=6, COUNTA(B$2:B75), "")</f>
-        <v>74</v>
-      </c>
-      <c r="B75" s="5">
-        <v>45894</v>
-      </c>
-      <c r="C75" t="s">
-        <v>16</v>
-      </c>
-      <c r="D75" t="s">
-        <v>9</v>
-      </c>
-      <c r="E75">
-        <v>305</v>
-      </c>
-      <c r="F75" t="s">
-        <v>10</v>
-      </c>
-      <c r="G75" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76">
+        <v/>
+      </c>
+      <c r="B75" s="5"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="str">
         <f>IF(COUNTA(B76:G76)=6, COUNTA(B$2:B76), "")</f>
-        <v>75</v>
-      </c>
-      <c r="B76" s="5">
-        <v>45894</v>
-      </c>
-      <c r="C76" t="s">
-        <v>12</v>
-      </c>
-      <c r="D76" t="s">
-        <v>9</v>
-      </c>
-      <c r="E76">
-        <v>322</v>
-      </c>
-      <c r="F76" t="s">
-        <v>10</v>
-      </c>
-      <c r="G76" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77">
+        <v/>
+      </c>
+      <c r="B76" s="5"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="str">
         <f>IF(COUNTA(B77:G77)=6, COUNTA(B$2:B77), "")</f>
-        <v>76</v>
-      </c>
-      <c r="B77" s="5">
-        <v>45894</v>
-      </c>
-      <c r="C77" t="s">
-        <v>12</v>
-      </c>
-      <c r="D77" t="s">
-        <v>9</v>
-      </c>
-      <c r="E77">
-        <v>346</v>
-      </c>
-      <c r="F77" t="s">
-        <v>10</v>
-      </c>
-      <c r="G77" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78">
+        <v/>
+      </c>
+      <c r="B77" s="5"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="str">
         <f>IF(COUNTA(B78:G78)=6, COUNTA(B$2:B78), "")</f>
-        <v>77</v>
-      </c>
-      <c r="B78" s="5">
-        <v>45894</v>
-      </c>
-      <c r="C78" t="s">
-        <v>16</v>
-      </c>
-      <c r="D78" t="s">
-        <v>9</v>
-      </c>
-      <c r="E78">
-        <v>352</v>
-      </c>
-      <c r="F78" t="s">
-        <v>10</v>
-      </c>
-      <c r="G78" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79">
+        <v/>
+      </c>
+      <c r="B78" s="5"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="str">
         <f>IF(COUNTA(B79:G79)=6, COUNTA(B$2:B79), "")</f>
-        <v>78</v>
-      </c>
-      <c r="B79" s="5">
-        <v>45894</v>
-      </c>
-      <c r="C79" t="s">
-        <v>14</v>
-      </c>
-      <c r="D79" t="s">
-        <v>9</v>
-      </c>
-      <c r="E79">
-        <v>369</v>
-      </c>
-      <c r="F79" t="s">
-        <v>10</v>
-      </c>
-      <c r="G79" t="s">
-        <v>11</v>
-      </c>
-      <c r="H79" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80">
+        <v/>
+      </c>
+      <c r="B79" s="5"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="str">
         <f>IF(COUNTA(B80:G80)=6, COUNTA(B$2:B80), "")</f>
-        <v>79</v>
-      </c>
-      <c r="B80" s="5">
-        <v>45894</v>
-      </c>
-      <c r="C80" t="s">
-        <v>16</v>
-      </c>
-      <c r="D80" t="s">
-        <v>9</v>
-      </c>
-      <c r="E80">
-        <v>372</v>
-      </c>
-      <c r="F80" t="s">
-        <v>10</v>
-      </c>
-      <c r="G80" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81">
+        <v/>
+      </c>
+      <c r="B80" s="5"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="str">
         <f>IF(COUNTA(B81:G81)=6, COUNTA(B$2:B81), "")</f>
-        <v>80</v>
-      </c>
-      <c r="B81" s="5">
-        <v>45894</v>
-      </c>
-      <c r="C81" t="s">
-        <v>12</v>
-      </c>
-      <c r="D81" t="s">
-        <v>9</v>
-      </c>
-      <c r="E81">
-        <v>380</v>
-      </c>
-      <c r="F81" t="s">
-        <v>10</v>
-      </c>
-      <c r="G81" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82">
+        <v/>
+      </c>
+      <c r="B81" s="5"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="str">
         <f>IF(COUNTA(B82:G82)=6, COUNTA(B$2:B82), "")</f>
-        <v>81</v>
-      </c>
-      <c r="B82" s="5">
-        <v>45894</v>
-      </c>
-      <c r="C82" t="s">
-        <v>8</v>
-      </c>
-      <c r="D82" t="s">
-        <v>9</v>
-      </c>
-      <c r="E82">
-        <v>369</v>
-      </c>
-      <c r="F82" t="s">
-        <v>10</v>
-      </c>
-      <c r="G82" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83">
+        <v/>
+      </c>
+      <c r="B82" s="5"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="str">
         <f>IF(COUNTA(B83:G83)=6, COUNTA(B$2:B83), "")</f>
-        <v>82</v>
-      </c>
-      <c r="B83" s="5">
-        <v>45894</v>
-      </c>
-      <c r="C83" t="s">
-        <v>14</v>
-      </c>
-      <c r="D83" t="s">
-        <v>9</v>
-      </c>
-      <c r="E83">
-        <v>352</v>
-      </c>
-      <c r="F83" t="s">
-        <v>10</v>
-      </c>
-      <c r="G83" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84">
+        <v/>
+      </c>
+      <c r="B83" s="5"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="str">
         <f>IF(COUNTA(B84:G84)=6, COUNTA(B$2:B84), "")</f>
-        <v>83</v>
-      </c>
-      <c r="B84" s="5">
-        <v>45894</v>
-      </c>
-      <c r="C84" t="s">
-        <v>16</v>
-      </c>
-      <c r="D84" t="s">
-        <v>9</v>
-      </c>
-      <c r="E84">
-        <v>352</v>
-      </c>
-      <c r="F84" t="s">
-        <v>10</v>
-      </c>
-      <c r="G84" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85">
+        <v/>
+      </c>
+      <c r="B84" s="5"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="str">
         <f>IF(COUNTA(B85:G85)=6, COUNTA(B$2:B85), "")</f>
-        <v>84</v>
-      </c>
-      <c r="B85" s="5">
-        <v>45894</v>
-      </c>
-      <c r="C85" t="s">
-        <v>15</v>
-      </c>
-      <c r="D85" t="s">
-        <v>9</v>
-      </c>
-      <c r="E85">
-        <v>280</v>
-      </c>
-      <c r="F85" t="s">
-        <v>10</v>
-      </c>
-      <c r="G85" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86">
+        <v/>
+      </c>
+      <c r="B85" s="5"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="str">
         <f>IF(COUNTA(B86:G86)=6, COUNTA(B$2:B86), "")</f>
-        <v>85</v>
-      </c>
-      <c r="B86" s="5">
-        <v>45894</v>
-      </c>
-      <c r="C86" t="s">
-        <v>16</v>
-      </c>
-      <c r="D86" t="s">
-        <v>9</v>
-      </c>
-      <c r="E86">
-        <v>82</v>
-      </c>
-      <c r="F86" t="s">
-        <v>10</v>
-      </c>
-      <c r="G86" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87">
+        <v/>
+      </c>
+      <c r="B86" s="5"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="str">
         <f>IF(COUNTA(B87:G87)=6, COUNTA(B$2:B87), "")</f>
-        <v>86</v>
-      </c>
-      <c r="B87" s="5">
-        <v>45895</v>
-      </c>
-      <c r="C87" t="s">
-        <v>16</v>
-      </c>
-      <c r="D87" t="s">
-        <v>9</v>
-      </c>
-      <c r="E87">
-        <v>50</v>
-      </c>
-      <c r="F87" t="s">
-        <v>10</v>
-      </c>
-      <c r="G87" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88">
+        <v/>
+      </c>
+      <c r="B87" s="5"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="str">
         <f>IF(COUNTA(B88:G88)=6, COUNTA(B$2:B88), "")</f>
-        <v>87</v>
-      </c>
-      <c r="B88" s="5">
-        <v>45895</v>
-      </c>
-      <c r="C88" t="s">
-        <v>15</v>
-      </c>
-      <c r="D88" t="s">
-        <v>9</v>
-      </c>
-      <c r="E88">
-        <v>189</v>
-      </c>
-      <c r="F88" t="s">
-        <v>10</v>
-      </c>
-      <c r="G88" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89">
+        <v/>
+      </c>
+      <c r="B88" s="5"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="str">
         <f>IF(COUNTA(B89:G89)=6, COUNTA(B$2:B89), "")</f>
-        <v>88</v>
-      </c>
-      <c r="B89" s="5">
-        <v>45895</v>
-      </c>
-      <c r="C89" t="s">
-        <v>14</v>
-      </c>
-      <c r="D89" t="s">
-        <v>9</v>
-      </c>
-      <c r="E89">
-        <v>26</v>
-      </c>
-      <c r="F89" t="s">
-        <v>10</v>
-      </c>
-      <c r="G89" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90">
+        <v/>
+      </c>
+      <c r="B89" s="5"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="str">
         <f>IF(COUNTA(B90:G90)=6, COUNTA(B$2:B90), "")</f>
-        <v>89</v>
-      </c>
-      <c r="B90" s="5">
-        <v>45895</v>
-      </c>
-      <c r="C90" t="s">
-        <v>15</v>
-      </c>
-      <c r="D90" t="s">
-        <v>9</v>
-      </c>
-      <c r="E90">
-        <v>147</v>
-      </c>
-      <c r="F90" t="s">
-        <v>10</v>
-      </c>
-      <c r="G90" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91">
+        <v/>
+      </c>
+      <c r="B90" s="5"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="str">
         <f>IF(COUNTA(B91:G91)=6, COUNTA(B$2:B91), "")</f>
-        <v>90</v>
-      </c>
-      <c r="B91" s="5">
-        <v>45895</v>
-      </c>
-      <c r="C91" t="s">
-        <v>12</v>
-      </c>
-      <c r="D91" t="s">
-        <v>9</v>
-      </c>
-      <c r="E91">
-        <v>376</v>
-      </c>
-      <c r="F91" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="B91" s="5"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
         <f>IF(COUNTA(B92:G92)=6, COUNTA(B$2:B92), "")</f>
         <v/>
       </c>
       <c r="B92" s="5"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
         <f>IF(COUNTA(B93:G93)=6, COUNTA(B$2:B93), "")</f>
         <v/>
       </c>
       <c r="B93" s="5"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
         <f>IF(COUNTA(B94:G94)=6, COUNTA(B$2:B94), "")</f>
         <v/>
       </c>
       <c r="B94" s="5"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
         <f>IF(COUNTA(B95:G95)=6, COUNTA(B$2:B95), "")</f>
         <v/>
       </c>
       <c r="B95" s="5"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
         <f>IF(COUNTA(B96:G96)=6, COUNTA(B$2:B96), "")</f>
         <v/>
@@ -8951,13 +7412,13 @@
     </row>
     <row r="2" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C2" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>13</v>
@@ -8965,10 +7426,10 @@
     </row>
     <row r="3" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C3" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>11</v>
@@ -8976,7 +7437,7 @@
     </row>
     <row r="4" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C4" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>20</v>
@@ -8992,7 +7453,7 @@
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C6" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.25">
@@ -9002,12 +7463,12 @@
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I9" s="8"/>
     </row>
@@ -9023,7 +7484,7 @@
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.25">
@@ -9043,7 +7504,7 @@
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C16" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
